--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\Teaching work\2025\เทอม_01\ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6AFB28-EB21-4846-A2F2-B1559A35B282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AE778D-A701-40A8-925D-C51ABC52039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>LAB (5)</t>
+  </si>
+  <si>
+    <t>Quiz02(10)</t>
   </si>
 </sst>
 </file>
@@ -352,9 +355,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,6 +402,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,144 +714,144 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="16" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="13" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
@@ -871,7 +874,7 @@
         <v>33</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>26</v>
@@ -879,7 +882,7 @@
       <c r="M7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
@@ -888,32 +891,40 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9">
         <v>6.1</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>17.5</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>4.5</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="9">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>5</v>
+      </c>
+      <c r="K8" s="9">
+        <v>8.1989999999999998</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="11">
-        <f>SUM(D8:L8)</f>
-        <v>38.1</v>
+      <c r="M8" s="23">
+        <v>5</v>
+      </c>
+      <c r="N8" s="10">
+        <f>SUM(D8:M8)</f>
+        <v>61.298999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -923,32 +934,40 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="D9" s="9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9">
         <v>8.9</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>18.600000000000001</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>4.5</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9">
+        <v>8.9649999999999999</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="11">
-        <f t="shared" ref="N9:N17" si="0">SUM(D9:L9)</f>
-        <v>42</v>
+      <c r="M9" s="23">
+        <v>5</v>
+      </c>
+      <c r="N9" s="10">
+        <f>SUM(D9:M9)</f>
+        <v>65.965000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -958,32 +977,40 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>2.5249999999999999</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>4</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3.35</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="11">
-        <f t="shared" si="0"/>
-        <v>8.5250000000000004</v>
+      <c r="M10" s="23">
+        <v>5</v>
+      </c>
+      <c r="N10" s="10">
+        <f>SUM(D10:M10)</f>
+        <v>16.875</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -993,32 +1020,40 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>4.8</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>2.5</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>11.85</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>4.5</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="9">
+        <v>1.875</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>6.8</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="11">
-        <f t="shared" si="0"/>
-        <v>27.75</v>
+      <c r="M11" s="23">
+        <v>5</v>
+      </c>
+      <c r="N11" s="10">
+        <f>SUM(D11:M11)</f>
+        <v>41.424999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1028,32 +1063,40 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
         <v>3</v>
       </c>
-      <c r="G12" s="10">
-        <v>5</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="G12" s="9">
+        <v>5</v>
+      </c>
+      <c r="H12" s="9">
         <v>4</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="9">
+        <v>1.875</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3.75</v>
+      </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="M12" s="23">
+        <v>5</v>
+      </c>
+      <c r="N12" s="10">
+        <f>SUM(D12:M12)</f>
+        <v>23.625</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1063,32 +1106,40 @@
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="10">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10">
-        <v>5</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="D13" s="9">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
         <v>7.7</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>21.324999999999999</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>4.5</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="9">
+        <v>5</v>
+      </c>
+      <c r="J13" s="9">
+        <v>5</v>
+      </c>
+      <c r="K13" s="9">
+        <v>7.6989999999999998</v>
+      </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="11">
-        <f t="shared" si="0"/>
-        <v>43.524999999999999</v>
+      <c r="M13" s="23">
+        <v>5</v>
+      </c>
+      <c r="N13" s="10">
+        <f>SUM(D13:M13)</f>
+        <v>66.22399999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1098,32 +1149,40 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>4</v>
       </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
         <v>3.4</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>12.5</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>4.5</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="11">
-        <f t="shared" si="0"/>
-        <v>24.4</v>
+      <c r="M14" s="23">
+        <v>5</v>
+      </c>
+      <c r="N14" s="10">
+        <f>SUM(D14:M14)</f>
+        <v>29.4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1133,32 +1192,40 @@
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>4.8</v>
       </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>15.475</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>4</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="9">
+        <v>5</v>
+      </c>
+      <c r="J15" s="9">
+        <v>5</v>
+      </c>
+      <c r="K15" s="9">
+        <v>8.3320000000000007</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="11">
-        <f t="shared" si="0"/>
-        <v>28.674999999999997</v>
+      <c r="M15" s="23">
+        <v>5</v>
+      </c>
+      <c r="N15" s="10">
+        <f>SUM(D15:M15)</f>
+        <v>52.006999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1168,32 +1235,40 @@
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
         <v>2.8</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>4.2249999999999996</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>4</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="11">
-        <f t="shared" si="0"/>
-        <v>11.024999999999999</v>
+      <c r="M16" s="23">
+        <v>5</v>
+      </c>
+      <c r="N16" s="10">
+        <f>SUM(D16:M16)</f>
+        <v>16.024999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1203,32 +1278,41 @@
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>4.8</v>
       </c>
-      <c r="E17" s="10">
-        <v>5</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="E17" s="9">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9">
         <v>3.3</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>3.625</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>4.5</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="9">
+        <f>5-0.625</f>
+        <v>4.375</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>3.4159999999999999</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="11">
-        <f t="shared" si="0"/>
-        <v>21.225000000000001</v>
+      <c r="M17" s="23">
+        <v>5</v>
+      </c>
+      <c r="N17" s="10">
+        <f>SUM(D17:M17)</f>
+        <v>34.016000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1237,23 +1321,26 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f>AVERAGE(F8:F17)</f>
         <v>4.47</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f>AVERAGE(G8:G17)</f>
         <v>11.262499999999999</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="6">
+        <f>AVERAGE(K8:K17)</f>
+        <v>5.0510999999999999</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="12">
+      <c r="N18" s="11">
         <f>AVERAGE(N8:N17)</f>
-        <v>25.822500000000002</v>
+        <v>40.686099999999996</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AE778D-A701-40A8-925D-C51ABC52039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADF2C5D-C874-4D91-B9B9-084F4C093344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -141,6 +163,18 @@
   </si>
   <si>
     <t>Quiz02(10)</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Z-Score</t>
+  </si>
+  <si>
+    <t>GDP</t>
   </si>
 </sst>
 </file>
@@ -173,27 +207,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -211,201 +230,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,151 +565,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="8"/>
+    <col min="1" max="1" width="5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="15" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="12" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="3" t="s">
+      <c r="O5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -867,10 +760,10 @@
       <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -882,499 +775,867 @@
       <c r="M7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
         <v>6.1</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="5">
         <v>17.5</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <v>4.5</v>
       </c>
-      <c r="I8" s="9">
-        <v>5</v>
-      </c>
-      <c r="J8" s="9">
-        <v>5</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
         <v>8.1989999999999998</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="23">
-        <v>5</v>
-      </c>
-      <c r="N8" s="10">
+      <c r="L8" s="5">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M8" s="5">
+        <v>5</v>
+      </c>
+      <c r="N8" s="5">
         <f>SUM(D8:M8)</f>
-        <v>61.298999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>79.399000000000001</v>
+      </c>
+      <c r="O8" s="9">
+        <v>55.478999999999999</v>
+      </c>
+      <c r="P8" s="9">
+        <v>23.167999999999999</v>
+      </c>
+      <c r="Q8" s="5">
+        <f>(N8-O8)/P8</f>
+        <v>1.0324585635359118</v>
+      </c>
+      <c r="R8" s="1" t="str" cm="1">
+        <f t="array" ref="R8">_xlfn.LET(
+ _xlpm.s, N8,
+ _xlpm.mean, O8,
+ _xlpm.sd, P8,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
         <v>8.9</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="5">
         <v>18.600000000000001</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <v>4.5</v>
       </c>
-      <c r="I9" s="9">
-        <v>5</v>
-      </c>
-      <c r="J9" s="9">
-        <v>5</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
         <v>8.9649999999999999</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="23">
-        <v>5</v>
-      </c>
-      <c r="N9" s="10">
+      <c r="L9" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5">
         <f>SUM(D9:M9)</f>
-        <v>65.965000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>83.165000000000006</v>
+      </c>
+      <c r="O9" s="9">
+        <v>55.478999999999999</v>
+      </c>
+      <c r="P9" s="9">
+        <v>23.167999999999999</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" ref="Q9:Q17" si="0">(N9-O9)/P9</f>
+        <v>1.1950103591160224</v>
+      </c>
+      <c r="R9" s="1" t="str" cm="1">
+        <f t="array" ref="R9">_xlfn.LET(
+ _xlpm.s, N9,
+ _xlpm.mean, O9,
+ _xlpm.sd, P9,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>2.5249999999999999</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>4</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="5">
         <v>0</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="5">
         <v>0</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="5">
         <v>3.35</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="23">
-        <v>5</v>
-      </c>
-      <c r="N10" s="10">
+      <c r="L10" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>5</v>
+      </c>
+      <c r="N10" s="5">
         <f>SUM(D10:M10)</f>
-        <v>16.875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>23.074999999999999</v>
+      </c>
+      <c r="O10" s="9">
+        <v>55.478999999999999</v>
+      </c>
+      <c r="P10" s="9">
+        <v>23.167999999999999</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.398653314917127</v>
+      </c>
+      <c r="R10" s="1" t="str" cm="1">
+        <f t="array" ref="R10">_xlfn.LET(
+ _xlpm.s, N10,
+ _xlpm.mean, O10,
+ _xlpm.sd, P10,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>4.8</v>
       </c>
-      <c r="E11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>11.85</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <v>4.5</v>
       </c>
-      <c r="I11" s="9">
-        <v>1.875</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
         <v>0</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="5">
         <v>6.8</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="23">
-        <v>5</v>
-      </c>
-      <c r="N11" s="10">
-        <f>SUM(D11:M11)</f>
-        <v>41.424999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M11" s="5">
+        <v>5</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" ref="N8:N17" si="1">SUM(D11:M11)</f>
+        <v>58.449999999999996</v>
+      </c>
+      <c r="O11" s="9">
+        <v>55.478999999999999</v>
+      </c>
+      <c r="P11" s="9">
+        <v>23.167999999999999</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12823722375690594</v>
+      </c>
+      <c r="R11" s="1" t="str" cm="1">
+        <f t="array" ref="R11">_xlfn.LET(
+ _xlpm.s, N11,
+ _xlpm.mean, O11,
+ _xlpm.sd, P11,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="5">
         <v>3</v>
       </c>
-      <c r="G12" s="9">
-        <v>5</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
         <v>4</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="5">
         <v>1.875</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="5">
         <v>3.75</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="23">
-        <v>5</v>
-      </c>
-      <c r="N12" s="10">
-        <f>SUM(D12:M12)</f>
-        <v>23.625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="L12" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="M12" s="5">
+        <v>5</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="1"/>
+        <v>40.424999999999997</v>
+      </c>
+      <c r="O12" s="9">
+        <v>55.478999999999999</v>
+      </c>
+      <c r="P12" s="9">
+        <v>23.167999999999999</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.6497755524861879</v>
+      </c>
+      <c r="R12" s="1" t="str" cm="1">
+        <f t="array" ref="R12">_xlfn.LET(
+ _xlpm.s, N12,
+ _xlpm.mean, O12,
+ _xlpm.sd, P12,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9">
-        <v>5</v>
-      </c>
-      <c r="E13" s="9">
-        <v>5</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5">
         <v>7.7</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="5">
         <v>21.324999999999999</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <v>4.5</v>
       </c>
-      <c r="I13" s="9">
-        <v>5</v>
-      </c>
-      <c r="J13" s="9">
-        <v>5</v>
-      </c>
-      <c r="K13" s="9">
+      <c r="I13" s="5">
+        <v>5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5">
         <v>7.6989999999999998</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="23">
-        <v>5</v>
-      </c>
-      <c r="N13" s="10">
-        <f>SUM(D13:M13)</f>
-        <v>66.22399999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="L13" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="M13" s="5">
+        <v>5</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="1"/>
+        <v>83.72399999999999</v>
+      </c>
+      <c r="O13" s="9">
+        <v>55.478999999999999</v>
+      </c>
+      <c r="P13" s="9">
+        <v>23.167999999999999</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2191384668508283</v>
+      </c>
+      <c r="R13" s="1" t="str" cm="1">
+        <f t="array" ref="R13">_xlfn.LET(
+ _xlpm.s, N13,
+ _xlpm.mean, O13,
+ _xlpm.sd, P13,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="9">
-        <v>4</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="G14" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="5">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="G14" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="H14" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="23">
-        <v>5</v>
-      </c>
-      <c r="N14" s="10">
-        <f>SUM(D14:M14)</f>
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="L14" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="M14" s="5">
+        <v>5</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="1"/>
+        <v>56.8</v>
+      </c>
+      <c r="O14" s="9">
+        <v>55.478999999999999</v>
+      </c>
+      <c r="P14" s="9">
+        <v>23.167999999999999</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7018301104972288E-2</v>
+      </c>
+      <c r="R14" s="1" t="str" cm="1">
+        <f t="array" ref="R14">_xlfn.LET(
+ _xlpm.s, N14,
+ _xlpm.mean, O14,
+ _xlpm.sd, P14,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="5">
         <v>15.475</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="5">
         <v>4</v>
       </c>
-      <c r="I15" s="9">
-        <v>5</v>
-      </c>
-      <c r="J15" s="9">
-        <v>5</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5</v>
+      </c>
+      <c r="K15" s="5">
         <v>8.3320000000000007</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="23">
-        <v>5</v>
-      </c>
-      <c r="N15" s="10">
-        <f>SUM(D15:M15)</f>
-        <v>52.006999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3">
+      <c r="L15" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="M15" s="5">
+        <v>5</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="1"/>
+        <v>70.706999999999994</v>
+      </c>
+      <c r="O15" s="9">
+        <v>55.478999999999999</v>
+      </c>
+      <c r="P15" s="9">
+        <v>23.167999999999999</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.65728591160220973</v>
+      </c>
+      <c r="R15" s="1" t="str" cm="1">
+        <f t="array" ref="R15">_xlfn.LET(
+ _xlpm.s, N15,
+ _xlpm.mean, O15,
+ _xlpm.sd, P15,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>0</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="5">
         <v>2.8</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="5">
         <v>4.2249999999999996</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="5">
         <v>4</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="5">
         <v>0</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="5">
         <v>0</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="5">
         <v>0</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="23">
-        <v>5</v>
-      </c>
-      <c r="N16" s="10">
-        <f>SUM(D16:M16)</f>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>5</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="1"/>
         <v>16.024999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
+      <c r="O16" s="9">
+        <v>55.478999999999999</v>
+      </c>
+      <c r="P16" s="9">
+        <v>23.167999999999999</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.7029523480662985</v>
+      </c>
+      <c r="R16" s="1" t="str" cm="1">
+        <f t="array" ref="R16">_xlfn.LET(
+ _xlpm.s, N16,
+ _xlpm.mean, O16,
+ _xlpm.sd, P16,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>4.8</v>
       </c>
-      <c r="E17" s="9">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
         <v>3.3</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="5">
         <v>3.625</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="5">
         <v>4.5</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="5">
         <f>5-0.625</f>
         <v>4.375</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="5">
         <v>0</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="5">
         <v>3.4159999999999999</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="23">
-        <v>5</v>
-      </c>
-      <c r="N17" s="10">
-        <f>SUM(D17:M17)</f>
-        <v>34.016000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6">
-        <f>AVERAGE(F8:F17)</f>
-        <v>4.47</v>
-      </c>
-      <c r="G18" s="6">
-        <f>AVERAGE(G8:G17)</f>
-        <v>11.262499999999999</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="6">
-        <f>AVERAGE(K8:K17)</f>
-        <v>5.0510999999999999</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="11">
+      <c r="L17" s="5">
+        <v>9</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="1"/>
+        <v>43.016000000000005</v>
+      </c>
+      <c r="O17" s="9">
+        <v>55.478999999999999</v>
+      </c>
+      <c r="P17" s="9">
+        <v>23.167999999999999</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.53794026243093895</v>
+      </c>
+      <c r="R17" s="1" t="str" cm="1">
+        <f t="array" ref="R17">_xlfn.LET(
+ _xlpm.s, N17,
+ _xlpm.mean, O17,
+ _xlpm.sd, P17,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="5">
         <f>AVERAGE(N8:N17)</f>
-        <v>40.686099999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="4"/>
+        <v>55.478599999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2"/>
+      <c r="M19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="5">
+        <f>_xlfn.STDEV.P(N8:N17)</f>
+        <v>23.167890500431856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
     <mergeCell ref="N5:N7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADF2C5D-C874-4D91-B9B9-084F4C093344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A7870B-6F0C-4DCF-877E-87C8488755AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -184,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -194,6 +194,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
       <charset val="222"/>
@@ -234,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,16 +258,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,7 +579,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -594,157 +605,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
@@ -775,11 +786,11 @@
       <c r="M7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
@@ -788,13 +799,13 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10">
         <v>5</v>
       </c>
       <c r="F8" s="5">
@@ -806,10 +817,10 @@
       <c r="H8" s="5">
         <v>4.5</v>
       </c>
-      <c r="I8" s="5">
-        <v>5</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="10">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10">
         <v>5</v>
       </c>
       <c r="K8" s="5">
@@ -825,10 +836,10 @@
         <f>SUM(D8:M8)</f>
         <v>79.399000000000001</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="7">
         <v>55.478999999999999</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="7">
         <v>23.167999999999999</v>
       </c>
       <c r="Q8" s="5">
@@ -837,25 +848,23 @@
       </c>
       <c r="R8" s="1" t="str" cm="1">
         <f t="array" ref="R8">_xlfn.LET(
- _xlpm.s, N8,
- _xlpm.mean, O8,
- _xlpm.sd, P8,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N8,
+  _xlpm.mean, O8,
+  _xlpm.sd, P8,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>A</v>
       </c>
@@ -867,13 +876,13 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10">
         <v>5</v>
       </c>
       <c r="F9" s="5">
@@ -885,10 +894,10 @@
       <c r="H9" s="5">
         <v>4.5</v>
       </c>
-      <c r="I9" s="5">
-        <v>5</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10">
         <v>5</v>
       </c>
       <c r="K9" s="5">
@@ -904,10 +913,10 @@
         <f>SUM(D9:M9)</f>
         <v>83.165000000000006</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="7">
         <v>55.478999999999999</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="7">
         <v>23.167999999999999</v>
       </c>
       <c r="Q9" s="5">
@@ -916,25 +925,23 @@
       </c>
       <c r="R9" s="1" t="str" cm="1">
         <f t="array" ref="R9">_xlfn.LET(
- _xlpm.s, N9,
- _xlpm.mean, O9,
- _xlpm.sd, P9,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N9,
+  _xlpm.mean, O9,
+  _xlpm.sd, P9,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>A</v>
       </c>
@@ -946,13 +953,13 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
       <c r="F10" s="5">
@@ -964,10 +971,10 @@
       <c r="H10" s="5">
         <v>4</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="10">
         <v>0</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="10">
         <v>0</v>
       </c>
       <c r="K10" s="5">
@@ -983,10 +990,10 @@
         <f>SUM(D10:M10)</f>
         <v>23.074999999999999</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="7">
         <v>55.478999999999999</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="7">
         <v>23.167999999999999</v>
       </c>
       <c r="Q10" s="5">
@@ -995,27 +1002,25 @@
       </c>
       <c r="R10" s="1" t="str" cm="1">
         <f t="array" ref="R10">_xlfn.LET(
- _xlpm.s, N10,
- _xlpm.mean, O10,
- _xlpm.sd, P10,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N10,
+  _xlpm.mean, O10,
+  _xlpm.sd, P10,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1025,13 +1030,13 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="10">
         <v>4.8</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="10">
         <v>3</v>
       </c>
       <c r="F11" s="5">
@@ -1043,10 +1048,10 @@
       <c r="H11" s="5">
         <v>4.5</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="10">
         <v>0</v>
       </c>
       <c r="K11" s="5">
@@ -1059,13 +1064,13 @@
         <v>5</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" ref="N8:N17" si="1">SUM(D11:M11)</f>
+        <f t="shared" ref="N11:N17" si="1">SUM(D11:M11)</f>
         <v>58.449999999999996</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="7">
         <v>55.478999999999999</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="7">
         <v>23.167999999999999</v>
       </c>
       <c r="Q11" s="5">
@@ -1074,25 +1079,23 @@
       </c>
       <c r="R11" s="1" t="str" cm="1">
         <f t="array" ref="R11">_xlfn.LET(
- _xlpm.s, N11,
- _xlpm.mean, O11,
- _xlpm.sd, P11,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N11,
+  _xlpm.mean, O11,
+  _xlpm.sd, P11,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>B</v>
       </c>
@@ -1104,13 +1107,13 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
       <c r="F12" s="5">
@@ -1122,10 +1125,10 @@
       <c r="H12" s="5">
         <v>4</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="10">
         <v>1.875</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="10">
         <v>0</v>
       </c>
       <c r="K12" s="5">
@@ -1141,10 +1144,10 @@
         <f t="shared" si="1"/>
         <v>40.424999999999997</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="7">
         <v>55.478999999999999</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="7">
         <v>23.167999999999999</v>
       </c>
       <c r="Q12" s="5">
@@ -1153,25 +1156,23 @@
       </c>
       <c r="R12" s="1" t="str" cm="1">
         <f t="array" ref="R12">_xlfn.LET(
- _xlpm.s, N12,
- _xlpm.mean, O12,
- _xlpm.sd, P12,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N12,
+  _xlpm.mean, O12,
+  _xlpm.sd, P12,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>C</v>
       </c>
@@ -1183,13 +1184,13 @@
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10">
         <v>5</v>
       </c>
       <c r="F13" s="5">
@@ -1201,10 +1202,10 @@
       <c r="H13" s="5">
         <v>4.5</v>
       </c>
-      <c r="I13" s="5">
-        <v>5</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="I13" s="10">
+        <v>5</v>
+      </c>
+      <c r="J13" s="10">
         <v>5</v>
       </c>
       <c r="K13" s="5">
@@ -1220,10 +1221,10 @@
         <f t="shared" si="1"/>
         <v>83.72399999999999</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="7">
         <v>55.478999999999999</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="7">
         <v>23.167999999999999</v>
       </c>
       <c r="Q13" s="5">
@@ -1232,25 +1233,23 @@
       </c>
       <c r="R13" s="1" t="str" cm="1">
         <f t="array" ref="R13">_xlfn.LET(
- _xlpm.s, N13,
- _xlpm.mean, O13,
- _xlpm.sd, P13,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N13,
+  _xlpm.mean, O13,
+  _xlpm.sd, P13,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>A</v>
       </c>
@@ -1262,13 +1261,13 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10">
         <v>3</v>
       </c>
       <c r="F14" s="5">
@@ -1280,10 +1279,10 @@
       <c r="H14" s="5">
         <v>4.5</v>
       </c>
-      <c r="I14" s="5">
-        <v>5</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="I14" s="10">
+        <v>5</v>
+      </c>
+      <c r="J14" s="10">
         <v>5</v>
       </c>
       <c r="K14" s="5">
@@ -1299,10 +1298,10 @@
         <f t="shared" si="1"/>
         <v>56.8</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="7">
         <v>55.478999999999999</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="7">
         <v>23.167999999999999</v>
       </c>
       <c r="Q14" s="5">
@@ -1311,25 +1310,23 @@
       </c>
       <c r="R14" s="1" t="str" cm="1">
         <f t="array" ref="R14">_xlfn.LET(
- _xlpm.s, N14,
- _xlpm.mean, O14,
- _xlpm.sd, P14,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N14,
+  _xlpm.mean, O14,
+  _xlpm.sd, P14,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>B</v>
       </c>
@@ -1341,13 +1338,13 @@
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="10">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10">
         <v>3</v>
       </c>
       <c r="F15" s="5">
@@ -1359,10 +1356,10 @@
       <c r="H15" s="5">
         <v>4</v>
       </c>
-      <c r="I15" s="5">
-        <v>5</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="I15" s="10">
+        <v>5</v>
+      </c>
+      <c r="J15" s="10">
         <v>5</v>
       </c>
       <c r="K15" s="5">
@@ -1378,10 +1375,10 @@
         <f t="shared" si="1"/>
         <v>70.706999999999994</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="7">
         <v>55.478999999999999</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="7">
         <v>23.167999999999999</v>
       </c>
       <c r="Q15" s="5">
@@ -1390,25 +1387,23 @@
       </c>
       <c r="R15" s="1" t="str" cm="1">
         <f t="array" ref="R15">_xlfn.LET(
- _xlpm.s, N15,
- _xlpm.mean, O15,
- _xlpm.sd, P15,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N15,
+  _xlpm.mean, O15,
+  _xlpm.sd, P15,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>B+</v>
       </c>
@@ -1420,13 +1415,13 @@
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="10">
         <v>0</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="10">
         <v>0</v>
       </c>
       <c r="F16" s="5">
@@ -1438,10 +1433,10 @@
       <c r="H16" s="5">
         <v>4</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="10">
         <v>0</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="10">
         <v>0</v>
       </c>
       <c r="K16" s="5">
@@ -1457,10 +1452,10 @@
         <f t="shared" si="1"/>
         <v>16.024999999999999</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="7">
         <v>55.478999999999999</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="7">
         <v>23.167999999999999</v>
       </c>
       <c r="Q16" s="5">
@@ -1469,25 +1464,23 @@
       </c>
       <c r="R16" s="1" t="str" cm="1">
         <f t="array" ref="R16">_xlfn.LET(
- _xlpm.s, N16,
- _xlpm.mean, O16,
- _xlpm.sd, P16,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N16,
+  _xlpm.mean, O16,
+  _xlpm.sd, P16,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>F</v>
       </c>
@@ -1499,13 +1492,13 @@
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="10">
         <v>4.8</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="10">
         <v>5</v>
       </c>
       <c r="F17" s="5">
@@ -1517,11 +1510,11 @@
       <c r="H17" s="5">
         <v>4.5</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="10">
         <f>5-0.625</f>
         <v>4.375</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="10">
         <v>0</v>
       </c>
       <c r="K17" s="5">
@@ -1537,10 +1530,10 @@
         <f t="shared" si="1"/>
         <v>43.016000000000005</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="7">
         <v>55.478999999999999</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="7">
         <v>23.167999999999999</v>
       </c>
       <c r="Q17" s="5">
@@ -1549,25 +1542,23 @@
       </c>
       <c r="R17" s="1" t="str" cm="1">
         <f t="array" ref="R17">_xlfn.LET(
- _xlpm.s, N17,
- _xlpm.mean, O17,
- _xlpm.sd, P17,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N17,
+  _xlpm.mean, O17,
+  _xlpm.sd, P17,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>C</v>
       </c>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A7870B-6F0C-4DCF-877E-87C8488755AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B6EB4-5C25-4711-9ADA-1551BD804994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,13 +263,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,7 +579,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -605,157 +605,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
@@ -786,11 +786,11 @@
       <c r="M7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
@@ -802,10 +802,10 @@
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
         <v>5</v>
       </c>
       <c r="F8" s="5">
@@ -817,10 +817,10 @@
       <c r="H8" s="5">
         <v>4.5</v>
       </c>
-      <c r="I8" s="10">
-        <v>5</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="8">
         <v>5</v>
       </c>
       <c r="K8" s="5">
@@ -879,10 +879,10 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="8">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8">
         <v>5</v>
       </c>
       <c r="F9" s="5">
@@ -894,10 +894,10 @@
       <c r="H9" s="5">
         <v>4.5</v>
       </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
         <v>5</v>
       </c>
       <c r="K9" s="5">
@@ -956,10 +956,10 @@
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8">
         <v>0</v>
       </c>
       <c r="F10" s="5">
@@ -971,10 +971,10 @@
       <c r="H10" s="5">
         <v>4</v>
       </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+      <c r="J10" s="8">
         <v>0</v>
       </c>
       <c r="K10" s="5">
@@ -988,7 +988,7 @@
       </c>
       <c r="N10" s="5">
         <f>SUM(D10:M10)</f>
-        <v>23.074999999999999</v>
+        <v>28.074999999999999</v>
       </c>
       <c r="O10" s="7">
         <v>55.478999999999999</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="0"/>
-        <v>-1.398653314917127</v>
+        <v>-1.1828383977900552</v>
       </c>
       <c r="R10" s="1" t="str" cm="1">
         <f t="array" ref="R10">_xlfn.LET(
@@ -1033,10 +1033,10 @@
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>4.8</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>3</v>
       </c>
       <c r="F11" s="5">
@@ -1048,10 +1048,10 @@
       <c r="H11" s="5">
         <v>4.5</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>2</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="8">
         <v>0</v>
       </c>
       <c r="K11" s="5">
@@ -1110,10 +1110,10 @@
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>0</v>
       </c>
       <c r="F12" s="5">
@@ -1125,10 +1125,10 @@
       <c r="H12" s="5">
         <v>4</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <v>1.875</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="8">
         <v>0</v>
       </c>
       <c r="K12" s="5">
@@ -1187,10 +1187,10 @@
       <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="10">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="8">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
         <v>5</v>
       </c>
       <c r="F13" s="5">
@@ -1202,10 +1202,10 @@
       <c r="H13" s="5">
         <v>4.5</v>
       </c>
-      <c r="I13" s="10">
-        <v>5</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
         <v>5</v>
       </c>
       <c r="K13" s="5">
@@ -1264,10 +1264,10 @@
       <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="10">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="8">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
         <v>3</v>
       </c>
       <c r="F14" s="5">
@@ -1279,10 +1279,10 @@
       <c r="H14" s="5">
         <v>4.5</v>
       </c>
-      <c r="I14" s="10">
-        <v>5</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="I14" s="8">
+        <v>5</v>
+      </c>
+      <c r="J14" s="8">
         <v>5</v>
       </c>
       <c r="K14" s="5">
@@ -1341,10 +1341,10 @@
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="10">
-        <v>5</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8">
         <v>3</v>
       </c>
       <c r="F15" s="5">
@@ -1356,10 +1356,10 @@
       <c r="H15" s="5">
         <v>4</v>
       </c>
-      <c r="I15" s="10">
-        <v>5</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="I15" s="8">
+        <v>5</v>
+      </c>
+      <c r="J15" s="8">
         <v>5</v>
       </c>
       <c r="K15" s="5">
@@ -1418,10 +1418,10 @@
       <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>0</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>0</v>
       </c>
       <c r="F16" s="5">
@@ -1433,10 +1433,10 @@
       <c r="H16" s="5">
         <v>4</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <v>0</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="8">
         <v>0</v>
       </c>
       <c r="K16" s="5">
@@ -1495,10 +1495,10 @@
       <c r="C17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>4.8</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>5</v>
       </c>
       <c r="F17" s="5">
@@ -1510,11 +1510,11 @@
       <c r="H17" s="5">
         <v>4.5</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <f>5-0.625</f>
         <v>4.375</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="8">
         <v>0</v>
       </c>
       <c r="K17" s="5">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="N18" s="5">
         <f>AVERAGE(N8:N17)</f>
-        <v>55.478599999999993</v>
+        <v>55.978599999999993</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="N19" s="5">
         <f>_xlfn.STDEV.P(N8:N17)</f>
-        <v>23.167890500431856</v>
+        <v>22.507722013566827</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
